--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0ACC7-78E2-435C-8164-F28E4C938F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA3EA1-52DB-4BEC-B5DF-E059A8ADB940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>dashboard</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>system_administration</t>
   </si>
   <si>
     <t>people</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
     <t>operations</t>
   </si>
   <si>
@@ -118,13 +103,7 @@
     <t>JIM,FRONTLINER,BTMR,CONTRACTOR</t>
   </si>
   <si>
-    <t>replicate</t>
-  </si>
-  <si>
     <t>resolution</t>
-  </si>
-  <si>
-    <t>generate</t>
   </si>
   <si>
     <t>FRONTLINER,BTMR,CONTRACTOR</t>
@@ -480,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,429 +477,406 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA3EA1-52DB-4BEC-B5DF-E059A8ADB940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564A5D0-83ED-4B76-9D18-F21F1447ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>dashboard</t>
   </si>
@@ -110,6 +110,54 @@
   </si>
   <si>
     <t>BTMR,CONTRACTOR</t>
+  </si>
+  <si>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>contractors</t>
+  </si>
+  <si>
+    <t>operation_times</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>email_templates</t>
+  </si>
+  <si>
+    <t>sla_templates</t>
+  </si>
+  <si>
+    <t>sla_settings</t>
+  </si>
+  <si>
+    <t>global_settings</t>
+  </si>
+  <si>
+    <t>action_codes</t>
+  </si>
+  <si>
+    <t>modules</t>
+  </si>
+  <si>
+    <t>incidents</t>
+  </si>
+  <si>
+    <t>audit_trails</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>knowledge_base</t>
   </si>
 </sst>
 </file>
@@ -459,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,37 +525,46 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -520,14 +577,17 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
@@ -540,25 +600,31 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -571,21 +637,27 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -599,14 +671,17 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -619,14 +694,17 @@
       <c r="F10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -639,14 +717,17 @@
       <c r="F11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
@@ -659,14 +740,17 @@
       <c r="F12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -679,14 +763,17 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
@@ -702,14 +789,17 @@
       <c r="G14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -722,13 +812,16 @@
       <c r="F15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -742,14 +835,17 @@
       <c r="F16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -762,14 +858,17 @@
       <c r="F17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -782,27 +881,33 @@
       <c r="F18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -811,40 +916,49 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -858,8 +972,11 @@
       <c r="F23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564A5D0-83ED-4B76-9D18-F21F1447ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DF0877-A089-4303-B0D5-3747914E5FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
   <si>
     <t>dashboard</t>
   </si>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,21 +978,24 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,11 +8,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluation Warning (1)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -30,72 +31,75 @@
     <t>system_administration</t>
   </si>
   <si>
+    <t>BTMR,FRONTLINER</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>contractors</t>
+  </si>
+  <si>
+    <t>contractor</t>
+  </si>
+  <si>
+    <t>operations</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>operation_times</t>
+  </si>
+  <si>
+    <t>operation-time</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>email_templates</t>
+  </si>
+  <si>
+    <t>email-format</t>
+  </si>
+  <si>
+    <t>sla</t>
+  </si>
+  <si>
+    <t>sla_management</t>
+  </si>
+  <si>
+    <t>sla_templates</t>
+  </si>
+  <si>
+    <t>sla-template</t>
+  </si>
+  <si>
     <t>BTMR</t>
   </si>
   <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>individuals</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>contractors</t>
-  </si>
-  <si>
-    <t>contractor</t>
-  </si>
-  <si>
-    <t>operations</t>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
-    <t>operation_times</t>
-  </si>
-  <si>
-    <t>operation-time</t>
-  </si>
-  <si>
-    <t>categories</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>email_templates</t>
-  </si>
-  <si>
-    <t>email-format</t>
-  </si>
-  <si>
-    <t>sla</t>
-  </si>
-  <si>
-    <t>sla_management</t>
-  </si>
-  <si>
-    <t>sla_templates</t>
-  </si>
-  <si>
-    <t>sla-template</t>
-  </si>
-  <si>
     <t>sla_settings</t>
   </si>
   <si>
@@ -157,19 +161,30 @@
   </si>
   <si>
     <t>resolution</t>
+  </si>
+  <si>
+    <t>This document was generated using a trial version of DevExpress libraries and can only be used for evaluation purposes.</t>
+  </si>
+  <si>
+    <t>Please purchase a license to continue use of DevExpress product libraries (v25.1.3.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
@@ -191,9 +206,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +513,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="B11">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="B1">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -766,12 +782,12 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -794,10 +810,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -805,10 +821,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -828,10 +844,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -851,10 +867,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -868,10 +884,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -883,84 +899,84 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -971,19 +987,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="5" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="5" ht="18.75">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>This document was generated using a trial version of DevExpress libraries and can only be used for evaluation purposes.</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Please purchase a license to continue use of DevExpress product libraries (v25.1.3.0)</t>
         </is>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,12 +8,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120" activeTab="2"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
-    <sheet name="Evaluation Warning (1)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -43,6 +41,9 @@
     <t>individual</t>
   </si>
   <si>
+    <t>BTMR</t>
+  </si>
+  <si>
     <t>groups</t>
   </si>
   <si>
@@ -97,9 +98,6 @@
     <t>sla-template</t>
   </si>
   <si>
-    <t>BTMR</t>
-  </si>
-  <si>
     <t>sla_settings</t>
   </si>
   <si>
@@ -161,35 +159,19 @@
   </si>
   <si>
     <t>resolution</t>
-  </si>
-  <si>
-    <t>This document was generated using a trial version of DevExpress libraries and can only be used for evaluation purposes.</t>
-  </si>
-  <si>
-    <t>Please purchase a license to continue use of DevExpress product libraries (v25.1.3.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,10 +188,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +493,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="B1">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A4">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -573,84 +553,84 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -658,10 +638,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -673,18 +653,18 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -696,18 +676,18 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -727,10 +707,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -750,10 +730,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -761,10 +741,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -782,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -790,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -982,50 +962,4 @@
   </sheetData>
   <pageSetup r:id="rId1" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="5" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="5" ht="18.75">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>This document was generated using a trial version of DevExpress libraries and can only be used for evaluation purposes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18.75">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Please purchase a license to continue use of DevExpress product libraries (v25.1.3.0)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>
--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>knowledge-base</t>
-  </si>
-  <si>
-    <t>FRONTLINER</t>
   </si>
   <si>
     <t>resolution</t>
@@ -493,8 +490,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -647,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -670,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -693,16 +690,16 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -716,16 +713,16 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -750,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
@@ -776,16 +773,16 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -810,16 +807,16 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -833,16 +830,16 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -921,19 +918,19 @@
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -941,7 +938,7 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>report</t>
+  </si>
+  <si>
+    <t>BTMR,CONTRACTOR,FRONTLINER</t>
   </si>
   <si>
     <t>BTMR,CONTRACTOR</t>
@@ -491,7 +494,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:G23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -907,15 +910,15 @@
         <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -938,7 +941,7 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\niise_helpdesk\be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95411B-9EB5-A443-8967-CDAEC075E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>dashboard</t>
   </si>
@@ -159,13 +161,16 @@
   </si>
   <si>
     <t>resolution</t>
+  </si>
+  <si>
+    <t>BTMR,FRONTLINER,JIM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +188,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -196,6 +207,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -204,10 +223,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -487,29 +506,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="9" width="33.25" customWidth="1"/>
+    <col min="7" max="9" width="33.1640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -531,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -542,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -565,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -588,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -602,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -625,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -636,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -659,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -682,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -705,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -728,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -739,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -765,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -788,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -799,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -822,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -845,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -862,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -885,7 +907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -899,7 +921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -913,7 +935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -921,13 +943,13 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -936,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -960,6 +982,7 @@
       </c>
     </row>
   </sheetData>
-  <pageSetup r:id="rId1" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95411B-9EB5-A443-8967-CDAEC075E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CAA80E-AA83-C34D-94B3-70A9D41C4B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>dashboard</t>
   </si>
   <si>
-    <t>JIM,FRONTLINER,BTMR,CONTRACTOR</t>
-  </si>
-  <si>
     <t>system_administration</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>individual</t>
   </si>
   <si>
-    <t>BTMR</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
@@ -130,30 +124,18 @@
     <t>incident</t>
   </si>
   <si>
-    <t>JIM,FRONTLINER,BTMR</t>
-  </si>
-  <si>
     <t>audit_trails</t>
   </si>
   <si>
     <t>audit-trail</t>
   </si>
   <si>
-    <t>FRONTLINER,BTMR,CONTRACTOR</t>
-  </si>
-  <si>
     <t>reports</t>
   </si>
   <si>
     <t>report</t>
   </si>
   <si>
-    <t>BTMR,CONTRACTOR,FRONTLINER</t>
-  </si>
-  <si>
-    <t>BTMR,CONTRACTOR</t>
-  </si>
-  <si>
     <t>knowledge_base</t>
   </si>
   <si>
@@ -163,7 +145,25 @@
     <t>resolution</t>
   </si>
   <si>
-    <t>BTMR,FRONTLINER,JIM</t>
+    <t>JIM,FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR,FRONTLINER,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR,CONTRACTOR,FRONTLINER,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR,FRONTLINER,JIM,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>JIM,FRONTLINER,BTMR,SUPER_ADMIN</t>
   </si>
 </sst>
 </file>
@@ -515,18 +515,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
     <col min="7" max="9" width="33.1640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
@@ -539,446 +539,446 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CAA80E-AA83-C34D-94B3-70A9D41C4B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5995E7-FFC5-C44C-B73B-05C9EF13632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>dashboard</t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>JIM,FRONTLINER,BTMR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>incident_details</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>log_backend</t>
   </si>
 </sst>
 </file>
@@ -513,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -981,6 +996,68 @@
         <v>44</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5995E7-FFC5-C44C-B73B-05C9EF13632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A5B54-5309-4C4C-96DF-AF886986409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
   <si>
     <t>dashboard</t>
   </si>
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -998,38 +998,44 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -1043,10 +1049,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -1055,6 +1061,23 @@
         <v>50</v>
       </c>
       <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
         <v>50</v>
       </c>
     </row>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\niise_helpdesk\be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A5B54-5309-4C4C-96DF-AF886986409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
   <si>
     <t>dashboard</t>
   </si>
   <si>
-    <t>JIM,FRONTLINER,BTMR,CONTRACTOR</t>
-  </si>
-  <si>
     <t>system_administration</t>
   </si>
   <si>
@@ -41,9 +40,6 @@
     <t>individual</t>
   </si>
   <si>
-    <t>BTMR</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
@@ -128,30 +124,18 @@
     <t>incident</t>
   </si>
   <si>
-    <t>JIM,FRONTLINER,BTMR</t>
-  </si>
-  <si>
     <t>audit_trails</t>
   </si>
   <si>
     <t>audit-trail</t>
   </si>
   <si>
-    <t>FRONTLINER,BTMR,CONTRACTOR</t>
-  </si>
-  <si>
     <t>reports</t>
   </si>
   <si>
     <t>report</t>
   </si>
   <si>
-    <t>BTMR,CONTRACTOR,FRONTLINER</t>
-  </si>
-  <si>
-    <t>BTMR,CONTRACTOR</t>
-  </si>
-  <si>
     <t>knowledge_base</t>
   </si>
   <si>
@@ -159,13 +143,49 @@
   </si>
   <si>
     <t>resolution</t>
+  </si>
+  <si>
+    <t>JIM,FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR,FRONTLINER,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR,CONTRACTOR,FRONTLINER,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR,FRONTLINER,JIM,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>JIM,FRONTLINER,BTMR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>incident_details</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>log_backend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +203,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -196,6 +222,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -204,10 +238,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -487,29 +521,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="9" width="33.25" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="7" max="9" width="33.1640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,449 +554,535 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageSetup r:id="rId1" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A5B54-5309-4C4C-96DF-AF886986409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1930A7D-BA00-E945-9ECC-8E93F51032E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
   <si>
     <t>dashboard</t>
   </si>
@@ -145,21 +145,12 @@
     <t>resolution</t>
   </si>
   <si>
-    <t>JIM,FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN</t>
-  </si>
-  <si>
     <t>BTMR,FRONTLINER,SUPER_ADMIN</t>
   </si>
   <si>
     <t>BTMR,SUPER_ADMIN</t>
   </si>
   <si>
-    <t>FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN</t>
-  </si>
-  <si>
-    <t>BTMR,CONTRACTOR,FRONTLINER,SUPER_ADMIN</t>
-  </si>
-  <si>
     <t>BTMR,FRONTLINER,JIM,SUPER_ADMIN</t>
   </si>
   <si>
@@ -179,6 +170,24 @@
   </si>
   <si>
     <t>log_backend</t>
+  </si>
+  <si>
+    <t>BTMR_LEVEL_2,FRONTLINER,BTMR</t>
+  </si>
+  <si>
+    <t>JIM,FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN,BTMR_LEVEL_2</t>
+  </si>
+  <si>
+    <t>FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN,BTMR_LEVEL_2</t>
+  </si>
+  <si>
+    <t>BTMR,CONTRACTOR,FRONTLINER,SUPER_ADMIN,BTMR_LEVEL_2</t>
+  </si>
+  <si>
+    <t>special_reports</t>
+  </si>
+  <si>
+    <t>special-reports</t>
   </si>
 </sst>
 </file>
@@ -531,18 +540,18 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="9" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" customWidth="1"/>
+    <col min="5" max="6" width="60" customWidth="1"/>
+    <col min="7" max="7" width="50.1640625" customWidth="1"/>
+    <col min="8" max="9" width="33.1640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -565,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -576,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -587,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -610,19 +619,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -633,10 +642,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -647,19 +656,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -670,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -681,19 +690,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -704,19 +713,19 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -727,19 +736,19 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -750,19 +759,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -773,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -784,22 +793,22 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -810,19 +819,19 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -833,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -844,19 +853,19 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -867,19 +876,19 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -890,13 +899,13 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -907,19 +916,19 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -930,10 +939,10 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -944,10 +953,10 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -958,19 +967,19 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -981,100 +990,91 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" t="s">
         <v>50</v>
       </c>
       <c r="I29" t="s">

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1930A7D-BA00-E945-9ECC-8E93F51032E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779D2B29-49A0-CD48-84AF-170D606E8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
   <si>
     <t>dashboard</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>JIM,FRONTLINER,BTMR,SUPER_ADMIN</t>
-  </si>
-  <si>
-    <t>incident_details</t>
   </si>
   <si>
     <t>queue</t>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -845,7 +842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -868,7 +865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -891,7 +888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -908,7 +905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -916,13 +913,13 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -930,8 +927,11 @@
       <c r="G20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -953,13 +953,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -982,7 +982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -990,95 +990,78 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
       <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
       <c r="G24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="I28" t="s">
         <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779D2B29-49A0-CD48-84AF-170D606E8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBA2FE9-79CA-C640-AE21-7DD4E0A35BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBA2FE9-79CA-C640-AE21-7DD4E0A35BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA226CC6-A428-2145-A580-2575A765343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
   <si>
     <t>dashboard</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>special-reports</t>
+  </si>
+  <si>
+    <t>regular_reports</t>
+  </si>
+  <si>
+    <t>main-report</t>
   </si>
 </sst>
 </file>
@@ -534,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -950,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
@@ -1062,6 +1068,20 @@
       </c>
       <c r="I28" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA226CC6-A428-2145-A580-2575A765343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE194AB7-A4C4-864E-8C43-9800EA83696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>log_backend</t>
   </si>
   <si>
-    <t>BTMR_LEVEL_2,FRONTLINER,BTMR</t>
-  </si>
-  <si>
     <t>JIM,FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN,BTMR_LEVEL_2</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>main-report</t>
+  </si>
+  <si>
+    <t>BTMR_LEVEL_2,FRONTLINER,BTMR,SUPER_ADMIN</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -919,13 +919,13 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -945,10 +945,10 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -956,13 +956,13 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -996,19 +996,19 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
         <v>50</v>
       </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
       <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
         <v>50</v>
       </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1058,30 +1058,30 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A5B54-5309-4C4C-96DF-AF886986409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE194AB7-A4C4-864E-8C43-9800EA83696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
   <si>
     <t>dashboard</t>
   </si>
@@ -145,30 +145,18 @@
     <t>resolution</t>
   </si>
   <si>
-    <t>JIM,FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN</t>
-  </si>
-  <si>
     <t>BTMR,FRONTLINER,SUPER_ADMIN</t>
   </si>
   <si>
     <t>BTMR,SUPER_ADMIN</t>
   </si>
   <si>
-    <t>FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN</t>
-  </si>
-  <si>
-    <t>BTMR,CONTRACTOR,FRONTLINER,SUPER_ADMIN</t>
-  </si>
-  <si>
     <t>BTMR,FRONTLINER,JIM,SUPER_ADMIN</t>
   </si>
   <si>
     <t>JIM,FRONTLINER,BTMR,SUPER_ADMIN</t>
   </si>
   <si>
-    <t>incident_details</t>
-  </si>
-  <si>
     <t>queue</t>
   </si>
   <si>
@@ -179,6 +167,30 @@
   </si>
   <si>
     <t>log_backend</t>
+  </si>
+  <si>
+    <t>JIM,FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN,BTMR_LEVEL_2</t>
+  </si>
+  <si>
+    <t>FRONTLINER,BTMR,CONTRACTOR,SUPER_ADMIN,BTMR_LEVEL_2</t>
+  </si>
+  <si>
+    <t>BTMR,CONTRACTOR,FRONTLINER,SUPER_ADMIN,BTMR_LEVEL_2</t>
+  </si>
+  <si>
+    <t>special_reports</t>
+  </si>
+  <si>
+    <t>special-reports</t>
+  </si>
+  <si>
+    <t>regular_reports</t>
+  </si>
+  <si>
+    <t>main-report</t>
+  </si>
+  <si>
+    <t>BTMR_LEVEL_2,FRONTLINER,BTMR,SUPER_ADMIN</t>
   </si>
 </sst>
 </file>
@@ -528,21 +540,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="9" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" customWidth="1"/>
+    <col min="5" max="6" width="60" customWidth="1"/>
+    <col min="7" max="7" width="50.1640625" customWidth="1"/>
+    <col min="8" max="9" width="33.1640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -565,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -576,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -587,19 +599,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -610,19 +622,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -633,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -647,19 +659,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -670,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -681,19 +693,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -704,19 +716,19 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -727,19 +739,19 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -750,19 +762,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -773,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -784,22 +796,22 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -810,19 +822,19 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -833,10 +845,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -844,22 +856,22 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -867,22 +879,22 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -890,16 +902,16 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -907,22 +919,25 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -930,27 +945,27 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -958,22 +973,22 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -981,104 +996,92 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE194AB7-A4C4-864E-8C43-9800EA83696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1453C-DC7D-0240-992D-2E7B93E164DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
   <si>
     <t>dashboard</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>BTMR_LEVEL_2,FRONTLINER,BTMR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>FRONTLINER,BTMR,SUPER_ADMIN</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -554,7 +557,8 @@
     <col min="4" max="4" width="61.83203125" customWidth="1"/>
     <col min="5" max="6" width="60" customWidth="1"/>
     <col min="7" max="7" width="50.1640625" customWidth="1"/>
-    <col min="8" max="9" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" customWidth="1"/>
+    <col min="9" max="9" width="67" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1064,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
         <v>56</v>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1453C-DC7D-0240-992D-2E7B93E164DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBBDD27-B957-7B45-8223-EA6CF059EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>dashboard</t>
   </si>
@@ -194,6 +194,27 @@
   </si>
   <si>
     <t>FRONTLINER,BTMR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>testing_console</t>
+  </si>
+  <si>
+    <t>operating_console</t>
+  </si>
+  <si>
+    <t>adhoc_report</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing-email</t>
+  </si>
+  <si>
+    <t>adhoc-report</t>
+  </si>
+  <si>
+    <t>SUPER_ADMIN,BTMR,FRONTLINER</t>
   </si>
 </sst>
 </file>
@@ -543,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1017,75 +1038,134 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/permission.xlsx
+++ b/database/seeders/excel/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE194AB7-A4C4-864E-8C43-9800EA83696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D015E-0640-7945-A02A-781EF95D8B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>dashboard</t>
   </si>
@@ -191,6 +191,30 @@
   </si>
   <si>
     <t>BTMR_LEVEL_2,FRONTLINER,BTMR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>FRONTLINER,BTMR,SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>testing_console</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing-email</t>
+  </si>
+  <si>
+    <t>operating_console</t>
+  </si>
+  <si>
+    <t>adhoc_report</t>
+  </si>
+  <si>
+    <t>adhoc-report</t>
+  </si>
+  <si>
+    <t>SUPER_ADMIN,BTMR,FRONTLINER</t>
   </si>
 </sst>
 </file>
@@ -540,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1013,75 +1037,134 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
